--- a/biology/Zoologie/Paul_Galand_(scientifique)/Paul_Galand_(scientifique).xlsx
+++ b/biology/Zoologie/Paul_Galand_(scientifique)/Paul_Galand_(scientifique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Galand est docteur en sciences zoologiques et agrégé de l'Université libre de Bruxelles (ULB) en biologie cellulaire. Il a dirigé le laboratoire de Cytologie et de Cancérologie expérimentale de la Faculté de Médecine de l'ULB et été président de la section belge du Fonds mondial pour la nature (WWF)[1]. Passionné par la vulgarisation scientifique, il participe à des émissions animalières dès 1963 et pendant plus de 48 ans à l'émission Le Jardin extraordinaire de la RTBF en tant que conseiller scientifique et présentateur[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Galand est docteur en sciences zoologiques et agrégé de l'Université libre de Bruxelles (ULB) en biologie cellulaire. Il a dirigé le laboratoire de Cytologie et de Cancérologie expérimentale de la Faculté de Médecine de l'ULB et été président de la section belge du Fonds mondial pour la nature (WWF). Passionné par la vulgarisation scientifique, il participe à des émissions animalières dès 1963 et pendant plus de 48 ans à l'émission Le Jardin extraordinaire de la RTBF en tant que conseiller scientifique et présentateur.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Woodland Animals illustré par Ghislaine Joos, Hart-Davis MacGibbon Limited, 1971,  (ISBN 0298120054).
 (en) Water Animals illustré par Ghislaine Joos, Hart-Davis MacGibbon Limited, 1971,  (ISBN 0298120062).
